--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -11,14 +11,14 @@
     <sheet name="备忘" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">第一阶段!$E$2:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">第一阶段!$E$2:$E$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>区域管理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>企业用户注册</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -80,14 +76,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包括省市地区</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业管理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>模式管理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -125,6 +113,46 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>组织机构管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括省市地区，包括区域管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加或注册组织机构时，要添加一个默认企业管理员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业类别要分配权限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配权限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形结构显示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成默认管理员用户(实现创建企业管理员角色)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域管理员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -301,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +801,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,7 +1147,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1115,10 +1155,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="42.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1129,98 +1170,116 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44005</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
+    <row r="3" spans="1:10" s="7" customFormat="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44005</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44005</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44005</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.5</v>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44009</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1231,29 +1290,47 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.5</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8">
+        <v>44010</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="9" spans="1:10" s="7" customFormat="1">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.5</v>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44010</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1266,50 +1343,65 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44011</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" s="7" customFormat="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44008</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="13" spans="1:10" s="7" customFormat="1">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
-      <formula1>$J$2:$J$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="E13">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13">
       <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1323,7 +1415,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1335,10 +1427,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1346,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
+    <sheet name="备忘" sheetId="2" r:id="rId2"/>
+    <sheet name="待确认" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$F$2:$F$4</definedName>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>功能模块</t>
   </si>
@@ -249,19 +251,21 @@
   <si>
     <t>注：计划汇中没有去除假日，去除后预估到八月中旬，红色部分
 为现在还估算不出的功能</t>
+  </si>
+  <si>
+    <t>创建企业管理员角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除企业，企业下的资源如何处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,137 +281,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,7 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,192 +333,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -716,264 +423,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +454,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,57 +479,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1358,19 +773,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="5" width="13" style="1" customWidth="1"/>
@@ -1379,7 +794,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1447,24 +862,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>0.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <v>44013</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>44013</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1515,41 +930,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>0.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="9">
         <v>44016</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>44016</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>0.5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>44017</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>44017</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1000,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1636,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1087,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1157,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1776,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1810,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1244,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1863,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1314,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1916,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1967,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1984,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2003,7 +1418,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2020,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2037,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2056,7 +1471,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2073,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2090,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2126,7 +1541,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2143,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2160,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2179,7 +1594,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2196,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2213,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2230,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2247,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2264,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2281,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
@@ -2317,7 +1732,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2334,7 +1749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2368,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -2387,7 +1802,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2438,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>68</v>
       </c>
@@ -2458,7 +1873,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -2475,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -2492,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -2509,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -2526,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>73</v>
       </c>
@@ -2534,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>74</v>
       </c>
@@ -2542,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>75</v>
       </c>
@@ -2550,40 +1965,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>功能模块</t>
   </si>
@@ -254,18 +254,25 @@
   </si>
   <si>
     <t>创建企业管理员角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化树形结构加载和删除</t>
   </si>
   <si>
     <t>删除企业，企业下的资源如何处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,20 +288,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,13 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,12 +477,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -423,9 +747,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -433,56 +999,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -773,1204 +1386,1204 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>44013</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>44017</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="M2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>44013</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>44013</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>44013</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>44013</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>44014</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>44014</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>44015</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>44015</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>44016</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>44016</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="1">
         <v>0.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>44016</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>44016</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>44017</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>44017</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>44017</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>44017</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>44018</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>44020</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>44018</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>44018</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>44018</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>44018</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>44019</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>44019</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>44020</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>44020</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>44021</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>44022</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>44021</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <v>44021</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>44022</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>44022</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>0.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>44022</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>44022</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>44023</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>44024</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>44023</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>44023</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0.5</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>44023</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>44023</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>0.5</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <v>44024</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="8">
         <v>44024</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>0.5</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>44024</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>44024</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>44025</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>44026</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>0.5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <v>44025</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="8">
         <v>44025</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>44025</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="8">
         <v>44026</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>0.5</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>44026</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>44026</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>44027</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>44028</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>0.5</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="8">
         <v>44027</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>44027</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>0.5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="8">
         <v>44027</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="8">
         <v>44027</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>0.5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="8">
         <v>44028</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="8">
         <v>44028</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>0.3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="8">
         <v>44028</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="8">
         <v>44028</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>0.2</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="8">
         <v>44028</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="8">
         <v>44028</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>44029</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>44030</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
         <v>44029</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="8">
         <v>44029</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
         <v>44030</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="8">
         <v>44030</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>3</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>44031</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>44033</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
         <v>44031</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="8">
         <v>44031</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
         <v>44032</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="8">
         <v>44032</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
         <v>44033</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="8">
         <v>44033</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>44034</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>44035</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
         <v>44034</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="8">
         <v>44034</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8">
         <v>44035</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="8">
         <v>44035</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="3">
-        <v>7</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="4">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5">
         <v>44036</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>44042</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
         <v>44036</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="8">
         <v>44036</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8">
         <v>44037</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="8">
         <v>44037</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8">
         <v>44038</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="8">
         <v>44038</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
         <v>44039</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="8">
         <v>44039</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8">
         <v>44040</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="8">
         <v>44040</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="F50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
         <v>44041</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="8">
         <v>44041</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
         <v>44042</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="8">
         <v>44042</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>44043</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>44045</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
         <v>44043</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="8">
         <v>44043</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
         <v>44044</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="8">
         <v>44044</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8">
         <v>44045</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="8">
         <v>44045</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>3</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="5">
         <v>44046</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>44048</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8">
         <v>44046</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="8">
         <v>44046</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
         <v>44047</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="8">
         <v>44047</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="F59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8">
         <v>44048</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="8">
         <v>44048</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>3</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="5">
         <v>44049</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="5">
         <v>44051</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8">
         <v>44049</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="8">
         <v>44049</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8">
         <v>44050</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="8">
         <v>44050</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="F63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
         <v>44051</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="8">
         <v>44051</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8">
         <v>44052</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="8">
         <v>44052</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -1978,7 +2591,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1988,65 +2601,72 @@
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>功能模块</t>
   </si>
@@ -260,19 +260,18 @@
   </si>
   <si>
     <t>删除企业，企业下的资源如何处理</t>
+  </si>
+  <si>
+    <t>企业注册或新增时，要在后台自动生成企业管理员用户，
+并分配企业管理员角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,151 +287,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,7 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,194 +336,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -747,255 +422,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,58 +477,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1386,19 +775,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
     <col min="2" max="5" width="13" style="2" customWidth="1"/>
@@ -1407,7 +796,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1509,24 +898,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>44015</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>44015</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1613,7 +1002,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1089,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1159,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1787,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1246,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
@@ -1927,7 +1316,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1978,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2031,7 +1420,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -2048,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +1473,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -2101,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -2118,7 +1507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2135,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +1543,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2171,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2188,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
@@ -2207,7 +1596,7 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2224,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2241,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2258,7 +1647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2275,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2309,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2326,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -2345,7 +1734,7 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2362,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -2379,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -2396,7 +1785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -2415,7 +1804,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
@@ -2432,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -2449,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -2466,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>68</v>
       </c>
@@ -2486,7 +1875,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -2520,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
@@ -2537,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
@@ -2554,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>73</v>
       </c>
@@ -2562,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>75</v>
       </c>
@@ -2578,12 +1967,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +1980,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2601,72 +1990,75 @@
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
     <sheet name="备忘" sheetId="2" r:id="rId2"/>
     <sheet name="待确认" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$F$2:$F$4</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>功能模块</t>
   </si>
@@ -259,19 +260,36 @@
     <t>优化树形结构加载和删除</t>
   </si>
   <si>
-    <t>删除企业，企业下的资源如何处理</t>
-  </si>
-  <si>
     <t>企业注册或新增时，要在后台自动生成企业管理员用户，
 并分配企业管理员角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除企业，企业下的资源如何处理</t>
+  </si>
+  <si>
+    <t>导入数据字典</t>
+  </si>
+  <si>
+    <t>切换模式</t>
+  </si>
+  <si>
+    <t>企业注册</t>
+  </si>
+  <si>
+    <t>企业用户激活</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +305,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,8 +492,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -422,9 +764,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -432,6 +1016,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,14 +1064,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -775,1290 +1406,1332 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>44013</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>44017</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>44013</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>44013</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>44013</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>44013</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>44014</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>44014</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>44015</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>44015</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>44016</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>44016</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>44016</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>44016</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>44017</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>44017</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>44017</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>44017</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>44018</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>44020</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>0.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>44018</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>44018</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>0.5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>44018</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>44018</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>44019</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>44019</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>44020</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>44020</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>44021</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>44022</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
         <v>44021</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>44021</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>0.5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>44022</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>44022</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>44022</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>44022</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>44023</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>44024</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>0.5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>44023</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>44023</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>44023</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>44023</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>44024</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>44024</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>0.5</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>44024</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>44024</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>44025</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>44026</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>0.5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>44025</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>44025</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
         <v>44025</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>44026</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>0.5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>44026</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>44026</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>44027</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>44028</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>0.5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>44027</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>44027</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>0.5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>44027</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>44027</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>0.5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>44028</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>44028</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>0.3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>44028</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>44028</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>0.2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>44028</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>44028</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>44029</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>44030</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
         <v>44029</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>44029</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
         <v>44030</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <v>44030</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="F37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>3</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>44031</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>44033</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
         <v>44031</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>44031</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
         <v>44032</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>44032</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9">
         <v>44033</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>44033</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>44034</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>44035</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9">
         <v>44034</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>44034</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9">
         <v>44035</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>44035</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="4">
-        <v>7</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" s="5">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6">
         <v>44036</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>44042</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9">
         <v>44036</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>44036</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9">
         <v>44037</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>44037</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9">
         <v>44038</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>44038</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9">
         <v>44039</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>44039</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9">
         <v>44040</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>44040</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
         <v>44041</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>44041</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9">
         <v>44042</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <v>44042</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>3</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>44043</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
         <v>44045</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9">
         <v>44043</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>44043</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
         <v>44044</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>44044</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9">
         <v>44045</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>44045</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="F56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>3</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>44046</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
         <v>44048</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9">
         <v>44046</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>44046</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="9">
         <v>44047</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>44047</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="F59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9">
         <v>44048</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="9">
         <v>44048</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>3</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>44049</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
         <v>44051</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9">
         <v>44049</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>44049</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="F62" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
         <v>44050</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>44050</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+      <c r="F63" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="9">
         <v>44051</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>44051</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="9">
         <v>44052</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
         <v>44052</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="F65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="F67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
+      <c r="F68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>80</v>
+    <row r="3" ht="40.5" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>功能模块</t>
   </si>
@@ -267,16 +267,7 @@
     <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
-    <t>导入数据字典</t>
-  </si>
-  <si>
-    <t>切换模式</t>
-  </si>
-  <si>
     <t>企业注册</t>
-  </si>
-  <si>
-    <t>企业用户激活</t>
   </si>
 </sst>
 </file>
@@ -306,15 +297,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,17 +337,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,13 +360,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,11 +379,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,14 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,35 +410,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -494,37 +485,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,19 +593,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,121 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,56 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -835,6 +776,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +812,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2699,13 +2690,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
   </cols>
@@ -2715,21 +2706,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>功能模块</t>
   </si>
@@ -267,7 +267,31 @@
     <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
-    <t>企业注册</t>
+    <t>企业注册时，添加企业简称</t>
+  </si>
+  <si>
+    <t>发文执行改为查看内容时，并显示发文执行历史</t>
+  </si>
+  <si>
+    <t>条目2中，表结构和后台代码修改</t>
+  </si>
+  <si>
+    <t>安全规章制度去掉实施日期</t>
+  </si>
+  <si>
+    <t>安全规章制度页面分上下两部分，上部为安全规章制度，下部分为规章制度样本</t>
+  </si>
+  <si>
+    <t>规章制度样本，企业用户编辑时，企业生成新的安全规章制度记录，显示在上部</t>
+  </si>
+  <si>
+    <t>默认密码改为手机号后六位</t>
+  </si>
+  <si>
+    <t>省市区改为外键链接</t>
+  </si>
+  <si>
+    <t>发文字号，添加企业简称</t>
   </si>
 </sst>
 </file>
@@ -276,12 +300,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -296,6 +328,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -304,9 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,61 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,9 +390,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,22 +466,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,13 +517,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +601,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +649,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,139 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,15 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -783,32 +806,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +844,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -861,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,138 +905,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1016,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,1202 +1449,1202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>44013</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>44017</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>44013</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>44013</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0.5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>44013</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>44013</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>44014</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>44014</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="4" customFormat="1" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
         <v>44015</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>44015</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="4" customFormat="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0.5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>44016</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>44016</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>0.5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>44016</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>44016</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="4" customFormat="1" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>0.5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>44017</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>44017</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="4" customFormat="1" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>0.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>44017</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>44017</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>44018</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>44020</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>0.5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>44018</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>44018</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>44018</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>44018</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <v>44019</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>44019</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
         <v>44020</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>44020</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>44021</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>44022</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
         <v>44021</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>44021</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>0.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>44022</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>44022</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>44022</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>44022</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>44023</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>44024</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>44023</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <v>44023</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>0.5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>44023</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>44023</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>0.5</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>44024</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>44024</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>0.5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="11">
         <v>44024</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>44024</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <v>44025</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>44026</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>0.5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>44025</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <v>44025</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
         <v>44025</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <v>44026</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>0.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>44026</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <v>44026</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <v>44027</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>44028</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>0.5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>44027</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>44027</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>0.5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>44027</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="11">
         <v>44027</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>0.5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>44028</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <v>44028</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>0.3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>44028</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="11">
         <v>44028</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>0.2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>44028</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="11">
         <v>44028</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="8">
         <v>44029</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="8">
         <v>44030</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11">
         <v>44029</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="11">
         <v>44029</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
         <v>44030</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="11">
         <v>44030</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>3</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="8">
         <v>44031</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="8">
         <v>44033</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
         <v>44031</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="11">
         <v>44031</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11">
         <v>44032</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="11">
         <v>44032</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
         <v>44033</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="11">
         <v>44033</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="7">
         <v>2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="8">
         <v>44034</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="8">
         <v>44035</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
         <v>44034</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="11">
         <v>44034</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11">
         <v>44035</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="11">
         <v>44035</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="5">
-        <v>7</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="7">
+        <v>7</v>
+      </c>
+      <c r="C45" s="8">
         <v>44036</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="8">
         <v>44042</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
         <v>44036</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="11">
         <v>44036</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
         <v>44037</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="11">
         <v>44037</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11">
         <v>44038</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="11">
         <v>44038</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
         <v>44039</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="11">
         <v>44039</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11">
         <v>44040</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="11">
         <v>44040</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11">
         <v>44041</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="11">
         <v>44041</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
         <v>44042</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="11">
         <v>44042</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="7">
         <v>3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="8">
         <v>44043</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="8">
         <v>44045</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="5"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11">
         <v>44043</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="11">
         <v>44043</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
         <v>44044</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="11">
         <v>44044</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11">
         <v>44045</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="11">
         <v>44045</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="7">
         <v>3</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="8">
         <v>44046</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="8">
         <v>44048</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11">
         <v>44046</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="11">
         <v>44046</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
         <v>44047</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="11">
         <v>44047</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11">
         <v>44048</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="11">
         <v>44048</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="7">
         <v>3</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="8">
         <v>44049</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="8">
         <v>44051</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11">
         <v>44049</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="11">
         <v>44049</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
         <v>44050</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="11">
         <v>44050</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11">
         <v>44051</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="11">
         <v>44051</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11">
         <v>44052</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="11">
         <v>44052</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2652,7 +2690,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2690,20 +2728,88 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -288,23 +288,18 @@
     <t>默认密码改为手机号后六位</t>
   </si>
   <si>
-    <t>省市区改为外键链接</t>
-  </si>
-  <si>
     <t>发文字号，添加企业简称</t>
+  </si>
+  <si>
+    <t>省市区改为外键链接（区域管理员、企业管理、法律法规、规章制度、企业通知）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,151 +323,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,192 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -787,255 +482,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,58 +546,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1435,19 +850,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
     <col min="2" max="5" width="13" style="5" customWidth="1"/>
@@ -1456,7 +871,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:6">
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:6">
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1609,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:6">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1626,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1077,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1679,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1164,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1819,7 +1234,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1887,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1906,7 +1321,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -1976,7 +1391,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -2010,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -2044,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
@@ -2061,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
@@ -2080,7 +1495,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
@@ -2114,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
@@ -2133,7 +1548,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
@@ -2150,7 +1565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2184,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>50</v>
       </c>
@@ -2203,7 +1618,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>52</v>
       </c>
@@ -2237,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
@@ -2256,7 +1671,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>54</v>
       </c>
@@ -2273,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>55</v>
       </c>
@@ -2290,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>58</v>
       </c>
@@ -2341,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>61</v>
       </c>
@@ -2394,7 +1809,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>62</v>
       </c>
@@ -2411,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
@@ -2428,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
@@ -2445,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>65</v>
       </c>
@@ -2464,7 +1879,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>51</v>
       </c>
@@ -2481,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
@@ -2498,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
@@ -2515,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
@@ -2535,7 +1950,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
@@ -2552,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
@@ -2569,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
@@ -2586,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>72</v>
       </c>
@@ -2603,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>73</v>
       </c>
@@ -2611,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>74</v>
       </c>
@@ -2619,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>75</v>
       </c>
@@ -2627,12 +2042,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2055,7 @@
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -2650,97 +2065,94 @@
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:1">
+    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2748,7 +2160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2756,7 +2168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2764,15 +2176,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2780,7 +2192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2788,7 +2200,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2796,24 +2208,25 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zdq0412</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zdq0412:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有改动，暂未定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zdq0412:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂未定，企业使用模板时，生成新的规章制度记录</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>功能模块</t>
   </si>
@@ -288,18 +342,26 @@
     <t>默认密码改为手机号后六位</t>
   </si>
   <si>
+    <t>省市区改为外键链接（区域管理员、企业管理、法律法规、规章制度、企业通知）</t>
+  </si>
+  <si>
     <t>发文字号，添加企业简称</t>
   </si>
   <si>
-    <t>省市区改为外键链接（区域管理员、企业管理、法律法规、规章制度、企业通知）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>查询法律法规时，省市区为空也可以查询到</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +378,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -323,31 +400,162 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,12 +606,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -482,9 +876,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -498,68 +1134,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -850,1341 +1533,1344 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="13" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>44013</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>44017</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="M2" s="5" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>0.5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>44013</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>44013</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>0.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>44013</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
         <v>44013</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
         <v>44014</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <v>44014</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
         <v>44015</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>44015</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>0.5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>44016</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="12">
         <v>44016</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>0.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>44016</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="12">
         <v>44016</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>0.5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>44017</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="12">
         <v>44017</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>0.5</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="12">
         <v>44017</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="12">
         <v>44017</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>44018</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>44020</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>0.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>44018</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>44018</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>0.5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="13">
         <v>44018</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="13">
         <v>44018</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
         <v>44019</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="13">
         <v>44019</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
         <v>44020</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <v>44020</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>44021</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>44022</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
         <v>44021</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="14">
         <v>44021</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>0.5</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>44022</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>44022</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>0.5</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <v>44022</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="14">
         <v>44022</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="10">
         <v>2</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="11">
         <v>44023</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>44024</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>0.5</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>44023</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="14">
         <v>44023</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>0.5</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>44023</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <v>44023</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="8">
         <v>0.5</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>44024</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="14">
         <v>44024</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="8">
         <v>0.5</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>44024</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <v>44024</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="11">
         <v>44025</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="11">
         <v>44026</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="8">
         <v>0.5</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>44025</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="14">
         <v>44025</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
         <v>44025</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="14">
         <v>44026</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="F27" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="8">
         <v>0.5</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>44026</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>44026</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="F28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>44027</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>44028</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="8">
         <v>0.5</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>44027</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="14">
         <v>44027</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="F30" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="8">
         <v>0.5</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="14">
         <v>44027</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="14">
         <v>44027</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="F31" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="8">
         <v>0.5</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>44028</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>44028</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="F32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="8">
         <v>0.3</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="14">
         <v>44028</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="14">
         <v>44028</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="F33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="8">
         <v>0.2</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>44028</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="14">
         <v>44028</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="F34" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="11">
         <v>44029</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="11">
         <v>44030</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14">
         <v>44029</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="14">
         <v>44029</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="F36" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
         <v>44030</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="14">
         <v>44030</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="F37" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>3</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="11">
         <v>44031</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>44033</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14">
         <v>44031</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="14">
         <v>44031</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="F39" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14">
         <v>44032</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="14">
         <v>44032</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="F40" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
         <v>44033</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="14">
         <v>44033</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+      <c r="F41" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="10">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="11">
         <v>44034</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="11">
         <v>44035</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
         <v>44034</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="14">
         <v>44034</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+      <c r="F43" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14">
         <v>44035</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="14">
         <v>44035</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+      <c r="F44" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="7">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="10">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11">
         <v>44036</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="11">
         <v>44042</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14">
         <v>44036</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="14">
         <v>44036</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="F46" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
         <v>44037</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="14">
         <v>44037</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="F47" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14">
         <v>44038</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="14">
         <v>44038</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="F48" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="14">
         <v>44039</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="14">
         <v>44039</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+      <c r="F49" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="8">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14">
         <v>44040</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="14">
         <v>44040</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+      <c r="F50" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14">
         <v>44041</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="14">
         <v>44041</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="F51" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14">
         <v>44042</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="14">
         <v>44042</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+      <c r="F52" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>3</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="11">
         <v>44043</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="11">
         <v>44045</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14">
         <v>44043</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="14">
         <v>44043</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="F54" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="14">
         <v>44044</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="14">
         <v>44044</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="F55" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14">
         <v>44045</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="14">
         <v>44045</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="10">
         <v>3</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="11">
         <v>44046</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="11">
         <v>44048</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14">
         <v>44046</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="14">
         <v>44046</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="F58" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="14">
         <v>44047</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="14">
         <v>44047</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+      <c r="F59" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="11">
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14">
         <v>44048</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="14">
         <v>44048</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
+      <c r="F60" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="10">
         <v>3</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="11">
         <v>44049</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="11">
         <v>44051</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="14">
         <v>44049</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="14">
         <v>44049</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="F62" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11">
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="14">
         <v>44050</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="14">
         <v>44050</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="F63" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14">
         <v>44051</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="14">
         <v>44051</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="F64" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65" s="11">
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
         <v>44052</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="14">
         <v>44052</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+      <c r="F65" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
+      <c r="F66" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
+      <c r="F67" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="13" t="s">
+      <c r="F68" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="40.5" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2192,7 +2878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2200,33 +2886,42 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
-        <v>10</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>88</v>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -19,62 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>zdq0412</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zdq0412:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-有改动，暂未定</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zdq0412:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-暂未定，企业使用模板时，生成新的规章制度记录</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>功能模块</t>
   </si>
@@ -321,34 +267,10 @@
     <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
-    <t>企业注册时，添加企业简称</t>
-  </si>
-  <si>
-    <t>发文执行改为查看内容时，并显示发文执行历史</t>
-  </si>
-  <si>
-    <t>条目2中，表结构和后台代码修改</t>
-  </si>
-  <si>
-    <t>安全规章制度去掉实施日期</t>
-  </si>
-  <si>
-    <t>安全规章制度页面分上下两部分，上部为安全规章制度，下部分为规章制度样本</t>
-  </si>
-  <si>
-    <t>规章制度样本，企业用户编辑时，企业生成新的安全规章制度记录，显示在上部</t>
-  </si>
-  <si>
-    <t>默认密码改为手机号后六位</t>
-  </si>
-  <si>
-    <t>省市区改为外键链接（区域管理员、企业管理、法律法规、规章制度、企业通知）</t>
-  </si>
-  <si>
-    <t>发文字号，添加企业简称</t>
-  </si>
-  <si>
-    <t>查询法律法规时，省市区为空也可以查询到</t>
+    <t>设计前台页面</t>
+  </si>
+  <si>
+    <t>安全投入计划提醒(每年2月1日前)</t>
   </si>
 </sst>
 </file>
@@ -361,30 +283,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,93 +299,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,6 +329,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -529,6 +391,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -536,26 +421,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,17 +763,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -908,15 +779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,6 +802,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -960,17 +848,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,10 +864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,201 +876,186 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,1202 +1414,1202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="13" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>44013</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>44017</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>44013</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>44013</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>44013</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>44013</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>44014</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>44014</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>44015</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>44015</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>44016</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>44016</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>44016</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <v>44016</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="2">
         <v>0.5</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>44017</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>44017</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>44017</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>44017</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>44018</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>44020</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>0.5</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>44018</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>44018</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>0.5</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>44018</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>44018</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>44019</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <v>44019</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>44020</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>44020</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>44021</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>44022</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
         <v>44021</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="9">
         <v>44021</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>0.5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>44022</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="9">
         <v>44022</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <v>0.5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="9">
         <v>44022</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="9">
         <v>44022</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>44023</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>44024</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="3">
         <v>0.5</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="9">
         <v>44023</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="9">
         <v>44023</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="9">
         <v>44023</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="9">
         <v>44023</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="9">
         <v>44024</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="9">
         <v>44024</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="3">
         <v>0.5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="9">
         <v>44024</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="9">
         <v>44024</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="6">
         <v>44025</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="6">
         <v>44026</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="10"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="3">
         <v>0.5</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="9">
         <v>44025</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="9">
         <v>44025</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
         <v>44025</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="9">
         <v>44026</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="3">
         <v>0.5</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="9">
         <v>44026</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="9">
         <v>44026</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="6">
         <v>44027</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="6">
         <v>44028</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="10"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="3">
         <v>0.5</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>44027</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="9">
         <v>44027</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="3">
         <v>0.5</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="9">
         <v>44027</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="9">
         <v>44027</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="3">
         <v>0.5</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="9">
         <v>44028</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="9">
         <v>44028</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="3">
         <v>0.3</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="9">
         <v>44028</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="9">
         <v>44028</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="3">
         <v>0.2</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="9">
         <v>44028</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="9">
         <v>44028</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="5">
         <v>2</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="6">
         <v>44029</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="6">
         <v>44030</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="10"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
         <v>44029</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="9">
         <v>44029</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
         <v>44030</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="9">
         <v>44030</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="5">
         <v>3</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="6">
         <v>44031</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>44033</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="10"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="8">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
         <v>44031</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="9">
         <v>44031</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="8">
-        <v>1</v>
-      </c>
-      <c r="C40" s="14">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
         <v>44032</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="9">
         <v>44032</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9">
         <v>44033</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="9">
         <v>44033</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="6">
         <v>44034</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="6">
         <v>44035</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="10"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9">
         <v>44034</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="9">
         <v>44034</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-      <c r="C44" s="14">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9">
         <v>44035</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="9">
         <v>44035</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="10">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="5">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6">
         <v>44036</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="6">
         <v>44042</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="10"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9">
         <v>44036</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="9">
         <v>44036</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="14">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9">
         <v>44037</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="9">
         <v>44037</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="8">
-        <v>1</v>
-      </c>
-      <c r="C48" s="14">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9">
         <v>44038</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="9">
         <v>44038</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="14">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9">
         <v>44039</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="9">
         <v>44039</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="14">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9">
         <v>44040</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="9">
         <v>44040</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="14">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
         <v>44041</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="9">
         <v>44041</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-      <c r="C52" s="14">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9">
         <v>44042</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="9">
         <v>44042</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="5">
         <v>3</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="6">
         <v>44043</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="6">
         <v>44045</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="10"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="14">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9">
         <v>44043</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="9">
         <v>44043</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="14">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
         <v>44044</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="9">
         <v>44044</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9">
         <v>44045</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="9">
         <v>44045</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="5">
         <v>3</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="6">
         <v>44046</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="6">
         <v>44048</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="10"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8">
-        <v>1</v>
-      </c>
-      <c r="C58" s="14">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9">
         <v>44046</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="9">
         <v>44046</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="14">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="9">
         <v>44047</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="9">
         <v>44047</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-      <c r="C60" s="14">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9">
         <v>44048</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="9">
         <v>44048</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="5">
         <v>3</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="6">
         <v>44049</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="6">
         <v>44051</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-      <c r="C62" s="14">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9">
         <v>44049</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="9">
         <v>44049</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
-      <c r="C63" s="14">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
         <v>44050</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="9">
         <v>44050</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
-      <c r="C64" s="14">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="9">
         <v>44051</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="9">
         <v>44051</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="8">
-        <v>1</v>
-      </c>
-      <c r="C65" s="14">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="9">
         <v>44052</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="9">
         <v>44052</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2788,7 +2655,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2826,102 +2693,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
     <sheet name="备忘" sheetId="2" r:id="rId2"/>
     <sheet name="待确认" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="周计划" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$F$2:$F$4</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>功能模块</t>
   </si>
@@ -267,23 +267,40 @@
     <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
-    <t>设计前台页面</t>
-  </si>
-  <si>
     <t>安全投入计划提醒(每年2月1日前)</t>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期截止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、模板管理：
+   1.1、会议模板
+   1.2、培训模板
+   1.3、检查模板
+   1.4、隐患排查模板
+   1.5、风险模板
+   1.6、责任制模板
+2、GPS监控台账
+3、安全会议台账
+4、宣传教育培训
+5、日常安全检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,151 +316,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,13 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,192 +361,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -758,255 +451,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,85 +482,44 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1400,19 +810,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
     <col min="2" max="5" width="13" style="3" customWidth="1"/>
@@ -1421,7 +831,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1489,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1506,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1605,167 +1015,181 @@
         <v>44017</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>44018</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>44020</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>0.5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>44018</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>44018</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>0.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>44018</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>44018</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
         <v>44019</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>44019</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
         <v>44020</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>44020</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <v>44021</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11">
         <v>44022</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
         <v>44021</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>44021</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>0.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>44022</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>44022</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="10">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>44022</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>44022</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1784,75 +1208,75 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>44023</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>44023</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>44023</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>44023</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>44024</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>44024</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>0.5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>44024</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>44024</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1871,58 +1295,58 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>0.5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>44025</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>44025</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>44025</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>44026</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>0.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>44026</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>44026</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -1941,92 +1365,92 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="3">
         <v>0.5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>44027</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>44027</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="3">
         <v>0.5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>44027</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>44027</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="3">
         <v>0.5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>44028</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>44028</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="3">
         <v>0.3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>44028</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>44028</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="3">
         <v>0.2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>44028</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>44028</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
@@ -2045,41 +1469,43 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11">
         <v>44029</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="11">
         <v>44029</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>44030</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>44030</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
@@ -2098,58 +1524,58 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>44031</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>44031</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>44032</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>44032</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>44033</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>44033</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
@@ -2168,41 +1594,41 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>44034</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>44034</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>44035</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>44035</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -2221,126 +1647,126 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>44036</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>44036</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>44037</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>44037</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>44038</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>44038</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>44039</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>44039</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>44040</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>44040</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>44041</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>44041</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>44042</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>44042</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
@@ -2359,58 +1785,58 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>44043</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>44043</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>44044</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>44044</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>44045</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>44045</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
@@ -2429,58 +1855,59 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>44046</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>44046</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
+      <c r="B59" s="10">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
         <v>44047</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="11">
         <v>44047</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>44048</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>44048</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
@@ -2500,230 +1927,238 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>44049</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>44049</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>44050</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>44050</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>44051</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>44051</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>44052</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>44052</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:1">
+    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="70.75" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>4</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="18">
+        <v>44039</v>
+      </c>
+      <c r="B2" s="18">
+        <v>44045</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>功能模块</t>
   </si>
@@ -282,17 +282,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、模板管理：
+    <r>
+      <t xml:space="preserve">1、模板管理：
    1.1、会议模板
    1.2、培训模板
    1.3、检查模板
    1.4、隐患排查模板
    1.5、风险模板
    1.6、责任制模板
-2、GPS监控台账
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、GPS监控台账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3、安全会议台账
 4、宣传教育培训
 5、日常安全检查</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-7-28：
+1、工作内容2修改为安全隐患排查
+原因：这部分涉及车辆档案信息，
+放在车辆档案信息后做
+2、工作内容1部分，风险模板和点检模板，唐工还没准备好，具体时间没定。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +354,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +547,9 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -512,7 +568,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2025,18 +2084,18 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2122,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2133,9 +2192,10 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2145,20 +2205,28 @@
       <c r="C1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
+      <c r="D1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>44039</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="12">
         <v>44045</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>85</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -264,22 +264,22 @@
 并分配企业管理员角色</t>
   </si>
   <si>
+    <t>安全投入计划提醒(每年2月1日前)</t>
+  </si>
+  <si>
     <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
-    <t>安全投入计划提醒(每年2月1日前)</t>
+    <t>日期开始</t>
+  </si>
+  <si>
+    <t>日期截止</t>
   </si>
   <si>
     <t>工作内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期截止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
   </si>
   <si>
     <r>
@@ -298,7 +298,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,11 +316,6 @@
 4、宣传教育培训
 5、日常安全检查</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020-7-28：
@@ -329,14 +323,26 @@
 原因：这部分涉及车辆档案信息，
 放在车辆档案信息后做
 2、工作内容1部分，风险模板和点检模板，唐工还没准备好，具体时间没定。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,9 +358,147 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,20 +506,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,7 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,12 +555,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -504,9 +825,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -514,6 +1077,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -523,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,50 +1107,88 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -869,1325 +1479,1328 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.625" style="6" customWidth="1"/>
+    <col min="2" max="5" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>44013</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>44017</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>44013</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>44013</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>0.5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>44013</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>44013</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>44014</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>44014</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>44015</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>44015</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>0.5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>44016</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>44016</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>0.5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>44016</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>44016</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>0.5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>44017</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>44017</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>0.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>44017</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>44017</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>44018</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>44020</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>0.5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>44018</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>44018</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>0.5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>44018</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>44018</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
         <v>44019</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>44019</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
         <v>44020</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>44020</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>44021</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>44022</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
         <v>44021</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>44021</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>0.5</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>44022</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>44022</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>0.5</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>44022</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>44022</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>44023</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>44024</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>0.5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="13">
         <v>44023</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="13">
         <v>44023</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>0.5</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="13">
         <v>44023</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="13">
         <v>44023</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="F22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>0.5</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="13">
         <v>44024</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="13">
         <v>44024</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="F23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>0.5</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="13">
         <v>44024</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="13">
         <v>44024</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="8">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <v>44025</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="9">
         <v>44026</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>0.5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="13">
         <v>44025</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="13">
         <v>44025</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
         <v>44025</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="13">
         <v>44026</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>0.5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="13">
         <v>44026</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="13">
         <v>44026</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="F28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>44027</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="9">
         <v>44028</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>0.5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="13">
         <v>44027</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="13">
         <v>44027</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>0.5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="13">
         <v>44027</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="13">
         <v>44027</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>0.5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="13">
         <v>44028</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="13">
         <v>44028</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>0.3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="13">
         <v>44028</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="13">
         <v>44028</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="F33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>0.2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="13">
         <v>44028</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="13">
         <v>44028</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="F34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>44029</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="9">
         <v>44030</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
         <v>44029</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>44029</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
         <v>44030</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="13">
         <v>44030</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="F37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="8">
         <v>3</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <v>44031</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="9">
         <v>44033</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
         <v>44031</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="13">
         <v>44031</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="F39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13">
         <v>44032</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="13">
         <v>44032</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
         <v>44033</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="13">
         <v>44033</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="F41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>44034</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="9">
         <v>44035</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
         <v>44034</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="13">
         <v>44034</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
         <v>44035</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="13">
         <v>44035</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="5">
-        <v>7</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="8">
+        <v>7</v>
+      </c>
+      <c r="C45" s="9">
         <v>44036</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="9">
         <v>44042</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
         <v>44036</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="13">
         <v>44036</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="F46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
         <v>44037</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="13">
         <v>44037</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
         <v>44038</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="13">
         <v>44038</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
         <v>44039</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="13">
         <v>44039</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="F49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13">
         <v>44040</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="13">
         <v>44040</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="F50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
         <v>44041</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="13">
         <v>44041</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="F51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="13">
         <v>44042</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="13">
         <v>44042</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="F52" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="8">
         <v>3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="9">
         <v>44043</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="9">
         <v>44045</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13">
         <v>44043</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="13">
         <v>44043</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="F54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13">
         <v>44044</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="13">
         <v>44044</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+      <c r="F55" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13">
         <v>44045</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="13">
         <v>44045</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="F56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="8">
         <v>3</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="9">
         <v>44046</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="9">
         <v>44048</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13">
         <v>44046</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="13">
         <v>44046</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+      <c r="F58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
         <v>44047</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="12">
         <v>44047</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13">
         <v>44048</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="13">
         <v>44048</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="F60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="9">
         <v>44049</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="9">
         <v>44051</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13">
         <v>44049</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="13">
         <v>44049</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="F62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13">
         <v>44050</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="13">
         <v>44050</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="F63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13">
         <v>44051</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="13">
         <v>44051</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="F64" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13">
         <v>44052</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="13">
         <v>44052</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="F65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+      <c r="F66" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="F67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="13" t="s">
+      <c r="F68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="40.5" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -2195,38 +2808,38 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="148.5" spans="1:4">
+      <c r="A2" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44045</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>44039</v>
-      </c>
-      <c r="B2" s="12">
-        <v>44045</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>功能模块</t>
   </si>
@@ -282,7 +282,17 @@
     <t>修改</t>
   </si>
   <si>
+    <t>修改工作完成情况</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1、模板管理：
    1.1、会议模板
    1.2、培训模板
@@ -324,6 +334,17 @@
 放在车辆档案信息后做
 2、工作内容1部分，风险模板和点检模板，唐工还没准备好，具体时间没定。</t>
   </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>1、台账页面调整
+  1.1 模板页面修改
+  1.2 客户操作页面修改
+  1.3 打印效果页面调整
+2、人员档案维护
+3、设备档案维护</t>
+  </si>
 </sst>
 </file>
 
@@ -331,18 +352,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +379,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -372,8 +401,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,16 +456,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,25 +478,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,60 +502,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,43 +569,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,19 +701,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,114 +750,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +844,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -850,50 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -909,17 +918,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,133 +957,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,13 +1091,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1095,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2794,18 +2808,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2821,9 +2836,11 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" ht="148.5" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="148.5" spans="1:5">
       <c r="A2" s="2">
         <v>44039</v>
       </c>
@@ -2831,11 +2848,26 @@
         <v>44045</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:4">
+      <c r="A3" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44052</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
     <sheet name="备忘" sheetId="2" r:id="rId2"/>
     <sheet name="待确认" sheetId="3" r:id="rId3"/>
     <sheet name="周计划" sheetId="4" r:id="rId4"/>
+    <sheet name="bug" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$F$2:$F$4</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>功能模块</t>
   </si>
@@ -345,16 +346,73 @@
 2、人员档案维护
 3、设备档案维护</t>
   </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>企业基础资料-&gt;企业简要介绍，编辑时没有反应</t>
+  </si>
+  <si>
+    <t>测试时没有出现问题，需要再测试</t>
+  </si>
+  <si>
+    <t>法律法规文件显示宽度修改</t>
+  </si>
+  <si>
+    <t>组织人员任免目录去掉</t>
+  </si>
+  <si>
+    <t>所有涉及名称的字段，长度限定为50个字符</t>
+  </si>
+  <si>
+    <t>人员档案文件上传，文件扩展名限定为doc,docx,pdf,rar,zip,图片</t>
+  </si>
+  <si>
+    <t>安全生产经费报表，没有记录的字段显示为0</t>
+  </si>
+  <si>
+    <t>安全台账添加上传图片功能</t>
+  </si>
+  <si>
+    <t>企业基础资料，企业名称修改，改为企业基本信息修改</t>
+  </si>
+  <si>
+    <t>安全会议台账、安全培训台账记录人，自动带当前登录用户名字</t>
+  </si>
+  <si>
+    <t>安全会议台账，签到表带管理层人员，是否为管理层在职务中设置</t>
+  </si>
+  <si>
+    <t>在职务中添加是否管理层字段，管理层可以参加安全会议</t>
+  </si>
+  <si>
+    <t>安全培训签到表，带过来所有员工</t>
+  </si>
+  <si>
+    <t>设备档案和人员档案合并到目录档案管理</t>
+  </si>
+  <si>
+    <t>设备档案类别初始化到类别管理中</t>
+  </si>
+  <si>
+    <t>人员档案统一添加有效期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -373,7 +431,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,52 +454,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,14 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -472,7 +500,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,6 +531,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -502,15 +559,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,12 +591,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,13 +639,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,169 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,6 +910,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -864,6 +949,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -875,30 +971,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,11 +992,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,8 +1002,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,144 +1027,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1103,52 +1191,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,1219 +1595,1219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
+    <col min="2" max="5" width="13" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="15">
         <v>44013</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="15">
         <v>44017</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="M2" s="6" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <v>0.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="16">
         <v>44013</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="16">
         <v>44013</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="11">
         <v>0.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="16">
         <v>44013</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="16">
         <v>44013</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16">
         <v>44014</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="16">
         <v>44014</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16">
         <v>44015</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="16">
         <v>44015</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>0.5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16">
         <v>44016</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="16">
         <v>44016</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <v>0.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>44016</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="16">
         <v>44016</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:6">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>0.5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>44017</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="16">
         <v>44017</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:6">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>0.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <v>44017</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="16">
         <v>44017</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="18">
         <v>44018</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="18">
         <v>44020</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="17">
         <v>0.5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="18">
         <v>44018</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="18">
         <v>44018</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="17">
         <v>0.5</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>44018</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="18">
         <v>44018</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="11"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="18">
         <v>44019</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="18">
         <v>44019</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="18">
         <v>44020</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="18">
         <v>44020</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="18">
         <v>44021</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="18">
         <v>44022</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="11"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="18">
         <v>44021</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="18">
         <v>44021</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="17">
         <v>0.5</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="18">
         <v>44022</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="18">
         <v>44022</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="11"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="18">
         <v>44022</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="18">
         <v>44022</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="11"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="14">
         <v>2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="15">
         <v>44023</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="15">
         <v>44024</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <v>0.5</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="19">
         <v>44023</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="19">
         <v>44023</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>0.5</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="19">
         <v>44023</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="19">
         <v>44023</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>0.5</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="19">
         <v>44024</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="19">
         <v>44024</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="12">
         <v>0.5</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="19">
         <v>44024</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="19">
         <v>44024</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="15">
         <v>44025</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="15">
         <v>44026</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="8"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="12">
         <v>0.5</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="19">
         <v>44025</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="19">
         <v>44025</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="19">
         <v>44025</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="19">
         <v>44026</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="12">
         <v>0.5</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="19">
         <v>44026</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="19">
         <v>44026</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="15">
         <v>44027</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="15">
         <v>44028</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="8"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <v>0.5</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="19">
         <v>44027</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="19">
         <v>44027</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="12">
         <v>0.5</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="19">
         <v>44027</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="19">
         <v>44027</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="12">
         <v>0.5</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="19">
         <v>44028</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="19">
         <v>44028</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="12">
         <v>0.3</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="19">
         <v>44028</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="19">
         <v>44028</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <v>0.2</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="19">
         <v>44028</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="19">
         <v>44028</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="14">
         <v>2</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="15">
         <v>44029</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="15">
         <v>44030</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="18">
         <v>44029</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="18">
         <v>44029</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="11"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="19">
         <v>44030</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="19">
         <v>44030</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="14">
         <v>3</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="15">
         <v>44031</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="15">
         <v>44033</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="8"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="19">
         <v>44031</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="19">
         <v>44031</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="19">
         <v>44032</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="19">
         <v>44032</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="19">
         <v>44033</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="19">
         <v>44033</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="15">
         <v>44034</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="15">
         <v>44035</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="8"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="19">
         <v>44034</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="19">
         <v>44034</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="19">
         <v>44035</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="19">
         <v>44035</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="8">
-        <v>7</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="B45" s="14">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15">
         <v>44036</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="15">
         <v>44042</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="8"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="19">
         <v>44036</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="19">
         <v>44036</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="12">
         <v>1</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="19">
         <v>44037</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="19">
         <v>44037</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="12">
         <v>1</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="19">
         <v>44038</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="19">
         <v>44038</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="12">
         <v>1</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="19">
         <v>44039</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="19">
         <v>44039</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="19">
         <v>44040</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="19">
         <v>44040</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="12">
         <v>1</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="19">
         <v>44041</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="19">
         <v>44041</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="19">
         <v>44042</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="19">
         <v>44042</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="14">
         <v>3</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="15">
         <v>44043</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="15">
         <v>44045</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="8"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="19">
         <v>44043</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="19">
         <v>44043</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="12">
         <v>1</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="19">
         <v>44044</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="19">
         <v>44044</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="12">
         <v>1</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="19">
         <v>44045</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="19">
         <v>44045</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="14">
         <v>3</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="15">
         <v>44046</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="15">
         <v>44048</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="8"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="19">
         <v>44046</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="19">
         <v>44046</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="18">
         <v>44047</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="18">
         <v>44047</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="19">
         <v>44048</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="19">
         <v>44048</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="15">
         <v>44049</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="15">
         <v>44051</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="12">
         <v>1</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="19">
         <v>44049</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="19">
         <v>44049</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="12">
         <v>1</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="19">
         <v>44050</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="19">
         <v>44050</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="12">
         <v>1</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="19">
         <v>44051</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="19">
         <v>44051</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="12">
         <v>1</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="19">
         <v>44052</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="19">
         <v>44052</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2765,7 +2853,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2810,8 +2898,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -2833,24 +2921,24 @@
       <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="148.5" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>44039</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>44045</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E2" t="s">
@@ -2858,20 +2946,216 @@
       </c>
     </row>
     <row r="3" ht="81" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>44046</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>44052</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44049</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -407,14 +407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,150 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +431,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,194 +493,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -909,251 +579,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,57 +668,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1581,19 +962,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
     <col min="2" max="5" width="13" style="12" customWidth="1"/>
@@ -1602,7 +983,7 @@
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:6">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:6">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -1704,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:6">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:6">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:6">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -1755,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1189,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +1208,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1846,7 +1227,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
@@ -1865,7 +1246,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1265,7 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
@@ -1903,7 +1284,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1303,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
@@ -1941,7 +1322,7 @@
       </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
@@ -1960,7 +1341,7 @@
       </c>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +1360,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -2030,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
@@ -2047,7 +1428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -2066,7 +1447,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -2117,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
@@ -2136,7 +1517,7 @@
       </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>41</v>
       </c>
@@ -2204,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2221,7 +1602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
@@ -2240,7 +1621,7 @@
       </c>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +1640,7 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2295,7 +1676,7 @@
       </c>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
@@ -2312,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +1727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
@@ -2365,7 +1746,7 @@
       </c>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>51</v>
       </c>
@@ -2382,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +1799,7 @@
       </c>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
@@ -2435,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
@@ -2452,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
@@ -2469,7 +1850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>57</v>
       </c>
@@ -2486,7 +1867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
@@ -2503,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>59</v>
       </c>
@@ -2520,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>61</v>
       </c>
@@ -2556,7 +1937,7 @@
       </c>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
@@ -2573,7 +1954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
@@ -2590,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
@@ -2607,7 +1988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2007,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>51</v>
       </c>
@@ -2643,7 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
@@ -2661,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>67</v>
       </c>
@@ -2678,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
@@ -2698,7 +2079,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>69</v>
       </c>
@@ -2715,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
@@ -2732,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
@@ -2749,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>72</v>
       </c>
@@ -2766,7 +2147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="20" t="s">
         <v>73</v>
       </c>
@@ -2774,7 +2155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="20" t="s">
         <v>74</v>
       </c>
@@ -2782,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="20" t="s">
         <v>75</v>
       </c>
@@ -2790,12 +2171,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
         <v>76</v>
       </c>
@@ -2803,7 +2184,7 @@
       <c r="C70" s="22"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -2813,96 +2194,93 @@
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:1">
+    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -2911,7 +2289,7 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2928,7 +2306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:5">
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2945,7 +2323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44046</v>
       </c>
@@ -2957,23 +2335,30 @@
       </c>
       <c r="D3" s="9"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>44053</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44059</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -2981,7 +2366,7 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -2995,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +2391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -3017,7 +2402,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
@@ -3028,7 +2413,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
@@ -3039,7 +2424,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -3050,7 +2435,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -3061,7 +2446,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
@@ -3072,7 +2457,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
@@ -3083,7 +2468,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -3094,7 +2479,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -3105,7 +2490,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
@@ -3116,7 +2501,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>106</v>
       </c>
@@ -3127,7 +2512,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -3135,7 +2520,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -3143,7 +2528,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>109</v>
       </c>
@@ -3155,7 +2540,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
-    <sheet name="备忘" sheetId="2" r:id="rId2"/>
-    <sheet name="待确认" sheetId="3" r:id="rId3"/>
-    <sheet name="周计划" sheetId="4" r:id="rId4"/>
-    <sheet name="bug" sheetId="5" r:id="rId5"/>
+    <sheet name="周计划" sheetId="4" r:id="rId2"/>
+    <sheet name="bug" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$F$2:$F$4</definedName>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>功能模块</t>
   </si>
@@ -253,22 +251,6 @@
   <si>
     <t>注：计划汇中没有去除假日，去除后预估到八月中旬，红色部分
 为现在还估算不出的功能</t>
-  </si>
-  <si>
-    <t>创建企业管理员角色</t>
-  </si>
-  <si>
-    <t>优化树形结构加载和删除</t>
-  </si>
-  <si>
-    <t>企业注册或新增时，要在后台自动生成企业管理员用户，
-并分配企业管理员角色</t>
-  </si>
-  <si>
-    <t>安全投入计划提醒(每年2月1日前)</t>
-  </si>
-  <si>
-    <t>删除企业，企业下的资源如何处理</t>
   </si>
   <si>
     <t>日期开始</t>
@@ -407,8 +389,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +412,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,14 +563,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,8 +619,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -579,13 +891,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,27 +1152,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,10 +1216,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -962,1403 +1557,1342 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
-    <col min="2" max="5" width="13" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="14.625" style="10" customWidth="1"/>
+    <col min="2" max="5" width="13" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="M1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>44013</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>44017</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>0.5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>44013</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>44013</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>44013</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>44013</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>44014</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>44014</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>44015</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>44015</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:6">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>0.5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>44016</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>44016</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="9" customFormat="1" spans="1:6">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>0.5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>44016</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>44016</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>0.5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>44017</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>44017</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="9" customFormat="1" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>0.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>44017</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>44017</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>44018</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>44020</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>0.5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>44018</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>44018</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>0.5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>44018</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>44018</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>44019</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>44019</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>44020</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>44020</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>44021</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>44022</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>44021</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>44021</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.5</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>44022</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>44022</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>0.5</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>44022</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>44022</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>44023</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>44024</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>0.5</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>44023</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>44023</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0.5</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>44023</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>44023</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>0.5</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>44024</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>44024</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>44024</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>44024</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>44025</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>44026</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>44025</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="17">
         <v>44025</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>44025</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>44026</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>0.5</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>44026</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>44026</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>44027</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>44028</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>0.5</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>44027</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>44027</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>0.5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>44027</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>44027</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>0.5</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>44028</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>44028</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+      <c r="F32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>0.3</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>44028</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>44028</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="F33" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>0.2</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <v>44028</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>44028</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
+      <c r="F34" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>2</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>44029</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>44030</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>1</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>44029</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>44029</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>44030</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>44030</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>3</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>44031</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>44033</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>1</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="17">
         <v>44031</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <v>44031</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="F39" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>1</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="17">
         <v>44032</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>44032</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+      <c r="F40" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>1</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="17">
         <v>44033</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <v>44033</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
+      <c r="F41" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>2</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>44034</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>44035</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>1</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="17">
         <v>44034</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="17">
         <v>44034</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="12" t="s">
+      <c r="F43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>1</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="17">
         <v>44035</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="17">
         <v>44035</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="14" t="s">
+      <c r="F44" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="14">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="B45" s="12">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13">
         <v>44036</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>44042</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="17">
         <v>44036</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="17">
         <v>44036</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+      <c r="F46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="17">
         <v>44037</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="17">
         <v>44037</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
+      <c r="F47" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>1</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="17">
         <v>44038</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>44038</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
+      <c r="F48" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>1</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="17">
         <v>44039</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="17">
         <v>44039</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="12" t="s">
+      <c r="F49" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="17">
         <v>44040</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="17">
         <v>44040</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
+      <c r="F50" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="17">
         <v>44041</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="17">
         <v>44041</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
+      <c r="F51" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>1</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="17">
         <v>44042</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="17">
         <v>44042</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="14" t="s">
+      <c r="F52" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>3</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="13">
         <v>44043</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>44045</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>1</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="17">
         <v>44043</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="17">
         <v>44043</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+      <c r="F54" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="17">
         <v>44044</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="17">
         <v>44044</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+      <c r="F55" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>1</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="17">
         <v>44045</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="17">
         <v>44045</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
+      <c r="F56" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="12">
         <v>3</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="13">
         <v>44046</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="13">
         <v>44048</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>1</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="17">
         <v>44046</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="17">
         <v>44046</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
+      <c r="F58" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="15">
         <v>1</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="16">
         <v>44047</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="16">
         <v>44047</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>1</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="17">
         <v>44048</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="17">
         <v>44048</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="14" t="s">
+      <c r="F60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="12">
         <v>3</v>
       </c>
-      <c r="C61" s="15">
-        <v>44049</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="C61" s="13">
+        <v>44049</v>
+      </c>
+      <c r="D61" s="13">
         <v>44051</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>1</v>
       </c>
-      <c r="C62" s="19">
-        <v>44049</v>
-      </c>
-      <c r="D62" s="19">
-        <v>44049</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
+      <c r="C62" s="17">
+        <v>44049</v>
+      </c>
+      <c r="D62" s="17">
+        <v>44049</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>1</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="17">
         <v>44050</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="17">
         <v>44050</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
+      <c r="F63" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>1</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="17">
         <v>44051</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="17">
         <v>44051</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="F64" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>1</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="17">
         <v>44052</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="17">
         <v>44052</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="20" t="s">
+      <c r="F65" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="20" t="s">
+      <c r="F66" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="20" t="s">
+      <c r="F67" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="21" t="s">
+      <c r="F68" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D1" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" ht="148.5" spans="1:5">
+      <c r="A2" s="7">
+        <v>44039</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44045</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:4">
+      <c r="A3" s="7">
+        <v>44046</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44052</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>44053</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44059</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>44039</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44045</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>44046</v>
-      </c>
-      <c r="B3" s="7">
-        <v>44052</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>44053</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44059</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -2366,181 +2900,187 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44049</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="5">
-        <v>44049</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B6" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C3" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C4" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C5" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C7" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C9" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C10" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C11" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C12" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C13" s="6">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="6">
-        <v>44049</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C16" s="5">
         <v>44049</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>功能模块</t>
   </si>
@@ -385,18 +385,34 @@
   <si>
     <t>人员档案统一添加有效期</t>
   </si>
+  <si>
+    <t xml:space="preserve">模板管理：
+1、安全责任考核
+2、安全目标考核
+3、应急预案演练
+4、职业健康记录
+5、三年行动计划
+6、标准化自评
+7、所有人员档案模板
+8、所有设备档案模板
+前端管理：
+1、安全责任考核
+2、安全目标考核
+3、应急预案演练
+4、职业健康记录
+5、三年行动计划
+6、标准化自评
+7、所有人员档案选择模板
+8、所有设备档案选择模板
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,150 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,8 +435,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,194 +497,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -891,255 +583,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,58 +665,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1557,19 +969,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="10" customWidth="1"/>
     <col min="2" max="5" width="13" style="10" customWidth="1"/>
@@ -1578,7 +990,7 @@
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1646,7 +1058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:6">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:6">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:6">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:6">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:6">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:6">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1784,7 +1196,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1215,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1234,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1253,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1272,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
@@ -1879,7 +1291,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1310,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1329,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -1936,7 +1348,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1367,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1972,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
@@ -2006,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +1454,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
@@ -2076,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
@@ -2093,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +1524,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
@@ -2146,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
@@ -2163,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
@@ -2180,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
@@ -2197,7 +1609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +1628,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
@@ -2235,7 +1647,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
@@ -2252,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -2271,7 +1683,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>48</v>
       </c>
@@ -2305,7 +1717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
@@ -2322,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
@@ -2341,7 +1753,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
@@ -2358,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>52</v>
       </c>
@@ -2375,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
@@ -2394,7 +1806,7 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
@@ -2411,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>55</v>
       </c>
@@ -2428,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
@@ -2462,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>58</v>
       </c>
@@ -2479,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>59</v>
       </c>
@@ -2496,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>60</v>
       </c>
@@ -2513,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>61</v>
       </c>
@@ -2532,7 +1944,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>62</v>
       </c>
@@ -2549,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>63</v>
       </c>
@@ -2566,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>64</v>
       </c>
@@ -2583,7 +1995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
@@ -2602,7 +2014,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>51</v>
       </c>
@@ -2619,7 +2031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>66</v>
       </c>
@@ -2637,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>68</v>
       </c>
@@ -2674,7 +2086,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>69</v>
       </c>
@@ -2691,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -2708,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>71</v>
       </c>
@@ -2725,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>72</v>
       </c>
@@ -2742,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="18" t="s">
         <v>73</v>
       </c>
@@ -2750,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>74</v>
       </c>
@@ -2758,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
@@ -2766,12 +2178,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
         <v>76</v>
       </c>
@@ -2779,7 +2191,7 @@
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
     </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2789,31 +2201,30 @@
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -2822,7 +2233,7 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2839,7 +2250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:5">
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2856,7 +2267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44046</v>
       </c>
@@ -2868,31 +2279,68 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44053</v>
       </c>
       <c r="B4" s="7">
         <v>44059</v>
       </c>
+      <c r="C4" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -2900,7 +2348,7 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -2914,7 +2362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -2925,7 +2373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -2936,7 +2384,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -2947,7 +2395,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -2958,7 +2406,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -2969,7 +2417,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2980,7 +2428,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -2991,7 +2439,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
@@ -3002,7 +2450,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +2461,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -3024,7 +2472,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -3035,7 +2483,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
@@ -3046,7 +2494,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -3057,7 +2505,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -3068,7 +2516,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -3080,7 +2528,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -329,69 +329,35 @@
 3、设备档案维护</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>完成日期</t>
-  </si>
-  <si>
-    <t>企业基础资料-&gt;企业简要介绍，编辑时没有反应</t>
-  </si>
-  <si>
-    <t>测试时没有出现问题，需要再测试</t>
-  </si>
-  <si>
-    <t>法律法规文件显示宽度修改</t>
-  </si>
-  <si>
-    <t>组织人员任免目录去掉</t>
-  </si>
-  <si>
-    <t>所有涉及名称的字段，长度限定为50个字符</t>
-  </si>
-  <si>
-    <t>人员档案文件上传，文件扩展名限定为doc,docx,pdf,rar,zip,图片</t>
-  </si>
-  <si>
-    <t>安全生产经费报表，没有记录的字段显示为0</t>
-  </si>
-  <si>
-    <t>安全台账添加上传图片功能</t>
-  </si>
-  <si>
-    <t>企业基础资料，企业名称修改，改为企业基本信息修改</t>
-  </si>
-  <si>
-    <t>安全会议台账、安全培训台账记录人，自动带当前登录用户名字</t>
-  </si>
-  <si>
-    <t>安全会议台账，签到表带管理层人员，是否为管理层在职务中设置</t>
-  </si>
-  <si>
-    <t>在职务中添加是否管理层字段，管理层可以参加安全会议</t>
-  </si>
-  <si>
-    <t>安全培训签到表，带过来所有员工</t>
-  </si>
-  <si>
-    <t>设备档案和人员档案合并到目录档案管理</t>
-  </si>
-  <si>
-    <t>设备档案类别初始化到类别管理中</t>
-  </si>
-  <si>
-    <t>人员档案统一添加有效期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模板管理：
+    <r>
+      <t xml:space="preserve">模板管理：
 1、安全责任考核
 2、安全目标考核
 3、应急预案演练
 4、职业健康记录
-5、三年行动计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、三年行动计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 6、标准化自评
 7、所有人员档案模板
 8、所有设备档案模板
@@ -400,19 +366,103 @@
 2、安全目标考核
 3、应急预案演练
 4、职业健康记录
-5、三年行动计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、三年行动计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 6、标准化自评
 7、所有人员档案选择模板
 8、所有设备档案选择模板
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    </r>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>企业基础资料-&gt;企业简要介绍，编辑时没有反应</t>
+  </si>
+  <si>
+    <t>测试时没有出现问题，需要再测试</t>
+  </si>
+  <si>
+    <t>法律法规文件显示宽度修改</t>
+  </si>
+  <si>
+    <t>组织人员任免目录去掉</t>
+  </si>
+  <si>
+    <t>所有涉及名称的字段，长度限定为50个字符</t>
+  </si>
+  <si>
+    <t>人员档案文件上传，文件扩展名限定为doc,docx,pdf,rar,zip,图片</t>
+  </si>
+  <si>
+    <t>安全生产经费报表，没有记录的字段显示为0</t>
+  </si>
+  <si>
+    <t>安全台账添加上传图片功能</t>
+  </si>
+  <si>
+    <t>企业基础资料，企业名称修改，改为企业基本信息修改</t>
+  </si>
+  <si>
+    <t>安全会议台账、安全培训台账记录人，自动带当前登录用户名字</t>
+  </si>
+  <si>
+    <t>安全会议台账，签到表带管理层人员，是否为管理层在职务中设置</t>
+  </si>
+  <si>
+    <t>在职务中添加是否管理层字段，管理层可以参加安全会议</t>
+  </si>
+  <si>
+    <t>安全培训签到表，带过来所有员工</t>
+  </si>
+  <si>
+    <t>设备档案和人员档案合并到目录档案管理</t>
+  </si>
+  <si>
+    <t>设备档案类别初始化到类别管理中</t>
+  </si>
+  <si>
+    <t>人员档案统一添加有效期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +478,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,13 +630,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,7 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,8 +694,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -583,13 +966,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +1242,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,20 +1296,58 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -969,1271 +1638,1272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="10" customWidth="1"/>
-    <col min="2" max="5" width="13" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
+    <col min="2" max="5" width="13" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>44013</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>44017</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>0.5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>44013</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>44013</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>0.5</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>44013</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>44013</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>44014</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>44014</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>44015</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>44015</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>0.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>44016</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>44016</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>0.5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>44016</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>44016</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>0.5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>44017</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <v>44017</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>0.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>44017</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <v>44017</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>44018</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>44020</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>0.5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>44018</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <v>44018</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>0.5</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>44018</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="18">
         <v>44018</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="18">
         <v>44019</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
         <v>44019</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="18">
         <v>44020</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="18">
         <v>44020</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="18">
         <v>44021</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <v>44022</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="18">
         <v>44021</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="18">
         <v>44021</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>0.5</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="18">
         <v>44022</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
         <v>44022</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="18">
         <v>44022</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
         <v>44022</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>2</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <v>44023</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>44024</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>0.5</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="19">
         <v>44023</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>44023</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="12">
         <v>0.5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="19">
         <v>44023</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="19">
         <v>44023</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="12">
         <v>0.5</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="19">
         <v>44024</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="19">
         <v>44024</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="12">
         <v>0.5</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="19">
         <v>44024</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="19">
         <v>44024</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="15">
         <v>44025</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>44026</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="12">
         <v>0.5</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="19">
         <v>44025</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="19">
         <v>44025</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="19">
         <v>44025</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="19">
         <v>44026</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="12">
         <v>0.5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="19">
         <v>44026</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="19">
         <v>44026</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="15">
         <v>44027</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="15">
         <v>44028</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <v>0.5</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="19">
         <v>44027</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="19">
         <v>44027</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="12">
         <v>0.5</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="19">
         <v>44027</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="19">
         <v>44027</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="12">
         <v>0.5</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="19">
         <v>44028</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="19">
         <v>44028</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="12">
         <v>0.3</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="19">
         <v>44028</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="19">
         <v>44028</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="12">
         <v>0.2</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="19">
         <v>44028</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="19">
         <v>44028</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <v>2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="15">
         <v>44029</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="15">
         <v>44030</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="18">
         <v>44029</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="18">
         <v>44029</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="19">
         <v>44030</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="19">
         <v>44030</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>3</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <v>44031</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="15">
         <v>44033</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="19">
         <v>44031</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="19">
         <v>44031</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="F39" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="19">
         <v>44032</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="19">
         <v>44032</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+      <c r="F40" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="19">
         <v>44033</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="19">
         <v>44033</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="F41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="15">
         <v>44034</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="15">
         <v>44035</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="19">
         <v>44034</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="19">
         <v>44034</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="F43" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="19">
         <v>44035</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="19">
         <v>44035</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="F44" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12">
-        <v>7</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B45" s="14">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15">
         <v>44036</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="15">
         <v>44042</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="19">
         <v>44036</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="19">
         <v>44036</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="12">
         <v>1</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="19">
         <v>44037</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="19">
         <v>44037</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="F47" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="12">
         <v>1</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="19">
         <v>44038</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="19">
         <v>44038</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="12">
         <v>1</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="19">
         <v>44039</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="19">
         <v>44039</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="19">
         <v>44040</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="19">
         <v>44040</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="12">
         <v>1</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="19">
         <v>44041</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="19">
         <v>44041</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="19">
         <v>44042</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="19">
         <v>44042</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
+      <c r="F52" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="14">
         <v>3</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="15">
         <v>44043</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="15">
         <v>44045</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="19">
         <v>44043</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="19">
         <v>44043</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="12">
         <v>1</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="19">
         <v>44044</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="19">
         <v>44044</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="12">
         <v>1</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="19">
         <v>44045</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="19">
         <v>44045</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="F56" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="14">
         <v>3</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="15">
         <v>44046</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="15">
         <v>44048</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="19">
         <v>44046</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="19">
         <v>44046</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
+      <c r="F58" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="18">
         <v>44047</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="18">
         <v>44047</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="19">
         <v>44048</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="19">
         <v>44048</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
+      <c r="F60" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="15">
         <v>44049</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="15">
         <v>44051</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="12">
         <v>1</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="19">
         <v>44049</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="19">
         <v>44049</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
+      <c r="F62" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="12">
         <v>1</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="19">
         <v>44050</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="19">
         <v>44050</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="F63" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="12">
         <v>1</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="19">
         <v>44051</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="19">
         <v>44051</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+      <c r="F64" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="12">
         <v>1</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="19">
         <v>44052</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="19">
         <v>44052</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
+      <c r="F65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="18" t="s">
+      <c r="F66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="18" t="s">
+      <c r="F67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
+      <c r="F68" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2250,7 +2920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="148.5" spans="1:5">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2267,7 +2937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" ht="81" spans="1:4">
       <c r="A3" s="7">
         <v>44046</v>
       </c>
@@ -2279,68 +2949,69 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="4" ht="270" spans="1:3">
       <c r="A4" s="7">
         <v>44053</v>
       </c>
       <c r="B4" s="7">
         <v>44059</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="C4" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="10.5" customHeight="1" spans="1:3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" hidden="1" spans="1:3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" hidden="1" spans="1:3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" hidden="1" spans="1:3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" hidden="1" spans="1:3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" hidden="1" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A5:A10"/>
     <mergeCell ref="C5:C10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -2348,34 +3019,34 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4">
         <v>44049</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5">
         <v>44049</v>
@@ -2384,9 +3055,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5">
         <v>44049</v>
@@ -2395,9 +3066,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5">
         <v>44049</v>
@@ -2406,9 +3077,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5">
         <v>44049</v>
@@ -2417,9 +3088,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="5">
         <v>44049</v>
@@ -2428,9 +3099,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5">
         <v>44049</v>
@@ -2439,9 +3110,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5">
         <v>44049</v>
@@ -2450,9 +3121,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5">
         <v>44049</v>
@@ -2461,9 +3132,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5">
         <v>44049</v>
@@ -2472,9 +3143,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5">
         <v>44049</v>
@@ -2483,9 +3154,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5">
         <v>44049</v>
@@ -2494,9 +3165,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="5">
         <v>44049</v>
@@ -2505,9 +3176,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5">
         <v>44049</v>
@@ -2516,9 +3187,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5">
         <v>44049</v>
@@ -2528,7 +3199,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>功能模块</t>
   </si>
@@ -451,18 +451,19 @@
   <si>
     <t>人员档案统一添加有效期</t>
   </si>
+  <si>
+    <t>1、搭建公共环境，便于共同访问
+2、风险管理和风险模板管理
+3、点检管理和点检模板管理
+4、GPS监控台账</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,150 +476,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,8 +495,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,194 +557,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -966,251 +643,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,112 +677,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1638,1263 +1026,1262 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
-    <col min="2" max="5" width="13" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="14.625" style="10" customWidth="1"/>
+    <col min="2" max="5" width="13" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="14" t="s">
+      <c r="M1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>44013</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>44017</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>0.5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>44013</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>44013</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>44013</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>44013</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
         <v>44014</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>44014</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
         <v>44015</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>44015</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:6">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>0.5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>44016</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>44016</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:6">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>0.5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>44016</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>44016</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>0.5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>44017</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>44017</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:6">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>0.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>44017</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>44017</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>44018</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>44020</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>0.5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>44018</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>44018</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>0.5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>44018</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>44018</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
         <v>44019</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>44019</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
         <v>44020</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>44020</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>44021</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>44022</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
         <v>44021</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>44021</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.5</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>44022</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>44022</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>0.5</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>44022</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>44022</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>44023</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>44024</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>0.5</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>44023</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>44023</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0.5</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>44023</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>44023</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>0.5</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>44024</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>44024</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>44024</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>44024</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>44025</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>44026</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>44025</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="17">
         <v>44025</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17">
         <v>44025</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>44026</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>0.5</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>44026</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>44026</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="14" t="s">
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>44027</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>44028</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>0.5</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>44027</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>44027</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>0.5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>44027</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>44027</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>0.5</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>44028</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>44028</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="12" t="s">
+      <c r="F32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>0.3</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>44028</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>44028</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
+      <c r="F33" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>0.2</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <v>44028</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>44028</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="F34" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>2</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>44029</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>44030</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
         <v>44029</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>44029</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17">
         <v>44030</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>44030</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>3</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>44031</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>44033</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
         <v>44031</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <v>44031</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12" t="s">
+      <c r="F39" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="12">
-        <v>1</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
         <v>44032</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>44032</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="12" t="s">
+      <c r="F40" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
         <v>44033</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <v>44033</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
+      <c r="F41" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>2</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>44034</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>44035</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="12" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="B43" s="10">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17">
         <v>44034</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="17">
         <v>44034</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="12" t="s">
+      <c r="F43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
         <v>44035</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="17">
         <v>44035</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="14" t="s">
+      <c r="F44" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="14">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="B45" s="12">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13">
         <v>44036</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>44042</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="12" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12">
-        <v>1</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17">
         <v>44036</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="17">
         <v>44036</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="12" t="s">
+      <c r="F46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12">
-        <v>1</v>
-      </c>
-      <c r="C47" s="19">
+      <c r="B47" s="10">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17">
         <v>44037</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="17">
         <v>44037</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="F47" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12">
-        <v>1</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17">
         <v>44038</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>44038</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="12" t="s">
+      <c r="F48" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="12">
-        <v>1</v>
-      </c>
-      <c r="C49" s="19">
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17">
         <v>44039</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="17">
         <v>44039</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="12" t="s">
+      <c r="F49" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12">
-        <v>1</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
         <v>44040</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="17">
         <v>44040</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
+      <c r="F50" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="12">
-        <v>1</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
+      <c r="C51" s="17">
         <v>44041</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="17">
         <v>44041</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
+      <c r="F51" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
-        <v>1</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="B52" s="10">
+        <v>1</v>
+      </c>
+      <c r="C52" s="17">
         <v>44042</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="17">
         <v>44042</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="14" t="s">
+      <c r="F52" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>3</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="13">
         <v>44043</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>44045</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="12" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="12">
-        <v>1</v>
-      </c>
-      <c r="C54" s="19">
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="17">
         <v>44043</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="17">
         <v>44043</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="12" t="s">
+      <c r="F54" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="12">
-        <v>1</v>
-      </c>
-      <c r="C55" s="19">
+      <c r="B55" s="10">
+        <v>1</v>
+      </c>
+      <c r="C55" s="17">
         <v>44044</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="17">
         <v>44044</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="12" t="s">
+      <c r="F55" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
-      <c r="C56" s="19">
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17">
         <v>44045</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="17">
         <v>44045</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="14" t="s">
+      <c r="F56" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="12">
         <v>3</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="13">
         <v>44046</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="13">
         <v>44048</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="12" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
-      <c r="C58" s="19">
+      <c r="B58" s="10">
+        <v>1</v>
+      </c>
+      <c r="C58" s="17">
         <v>44046</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="17">
         <v>44046</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="F58" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="17">
-        <v>1</v>
-      </c>
-      <c r="C59" s="18">
+      <c r="B59" s="15">
+        <v>1</v>
+      </c>
+      <c r="C59" s="16">
         <v>44047</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="16">
         <v>44047</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="12" t="s">
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="12">
-        <v>1</v>
-      </c>
-      <c r="C60" s="19">
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="17">
         <v>44048</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="17">
         <v>44048</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="14" t="s">
+      <c r="F60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="12">
         <v>3</v>
       </c>
-      <c r="C61" s="15">
-        <v>44049</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="C61" s="13">
+        <v>44049</v>
+      </c>
+      <c r="D61" s="13">
         <v>44051</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="12" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="12">
-        <v>1</v>
-      </c>
-      <c r="C62" s="19">
-        <v>44049</v>
-      </c>
-      <c r="D62" s="19">
-        <v>44049</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="12" t="s">
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
+      <c r="C62" s="17">
+        <v>44049</v>
+      </c>
+      <c r="D62" s="17">
+        <v>44049</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="12">
-        <v>1</v>
-      </c>
-      <c r="C63" s="19">
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+      <c r="C63" s="17">
         <v>44050</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="17">
         <v>44050</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="12" t="s">
+      <c r="F63" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="12">
-        <v>1</v>
-      </c>
-      <c r="C64" s="19">
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+      <c r="C64" s="17">
         <v>44051</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="17">
         <v>44051</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="12" t="s">
+      <c r="F64" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="12">
-        <v>1</v>
-      </c>
-      <c r="C65" s="19">
+      <c r="B65" s="10">
+        <v>1</v>
+      </c>
+      <c r="C65" s="17">
         <v>44052</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="17">
         <v>44052</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="20" t="s">
+      <c r="F65" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="20" t="s">
+      <c r="F66" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="20" t="s">
+      <c r="F67" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="21" t="s">
+      <c r="F68" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F69" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -2903,7 +2290,7 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2920,7 +2307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:5">
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2937,7 +2324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>44046</v>
       </c>
@@ -2949,7 +2336,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="270" spans="1:3">
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>44053</v>
       </c>
@@ -2960,35 +2347,41 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="10.5" customHeight="1" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" hidden="1" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" hidden="1" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" hidden="1" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" hidden="1" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" hidden="1" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+    <row r="5" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>44060</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44066</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2996,22 +2389,21 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:C10"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -3019,7 +2411,7 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
@@ -3033,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3044,7 +2436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -3055,7 +2447,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -3066,7 +2458,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
@@ -3077,7 +2469,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -3088,7 +2480,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -3099,7 +2491,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
@@ -3110,7 +2502,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
@@ -3121,7 +2513,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
@@ -3132,7 +2524,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
@@ -3143,7 +2535,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +2546,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
@@ -3165,7 +2557,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
@@ -3176,7 +2568,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
@@ -3187,7 +2579,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
@@ -3199,7 +2591,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="29040" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -330,6 +330,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">模板管理：
 1、安全责任考核
 2、安全目标考核
@@ -395,75 +402,83 @@
     </r>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>完成日期</t>
-  </si>
-  <si>
-    <t>企业基础资料-&gt;企业简要介绍，编辑时没有反应</t>
-  </si>
-  <si>
-    <t>测试时没有出现问题，需要再测试</t>
-  </si>
-  <si>
-    <t>法律法规文件显示宽度修改</t>
-  </si>
-  <si>
-    <t>组织人员任免目录去掉</t>
-  </si>
-  <si>
-    <t>所有涉及名称的字段，长度限定为50个字符</t>
-  </si>
-  <si>
-    <t>人员档案文件上传，文件扩展名限定为doc,docx,pdf,rar,zip,图片</t>
-  </si>
-  <si>
-    <t>安全生产经费报表，没有记录的字段显示为0</t>
-  </si>
-  <si>
-    <t>安全台账添加上传图片功能</t>
-  </si>
-  <si>
-    <t>企业基础资料，企业名称修改，改为企业基本信息修改</t>
-  </si>
-  <si>
-    <t>安全会议台账、安全培训台账记录人，自动带当前登录用户名字</t>
-  </si>
-  <si>
-    <t>安全会议台账，签到表带管理层人员，是否为管理层在职务中设置</t>
-  </si>
-  <si>
-    <t>在职务中添加是否管理层字段，管理层可以参加安全会议</t>
-  </si>
-  <si>
-    <t>安全培训签到表，带过来所有员工</t>
-  </si>
-  <si>
-    <t>设备档案和人员档案合并到目录档案管理</t>
-  </si>
-  <si>
-    <t>设备档案类别初始化到类别管理中</t>
-  </si>
-  <si>
-    <t>人员档案统一添加有效期</t>
-  </si>
-  <si>
     <t>1、搭建公共环境，便于共同访问
 2、风险管理和风险模板管理
 3、点检管理和点检模板管理
-4、GPS监控台账</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+4、GPS监控台账
+5、隐患排查和治理情况分析
+6、隐患类型统计分析
+7、应急预案备案</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>企业基础资料-&gt;企业简要介绍，编辑时没有反应</t>
+  </si>
+  <si>
+    <t>测试时没有出现问题，需要再测试</t>
+  </si>
+  <si>
+    <t>法律法规文件显示宽度修改</t>
+  </si>
+  <si>
+    <t>组织人员任免目录去掉</t>
+  </si>
+  <si>
+    <t>所有涉及名称的字段，长度限定为50个字符</t>
+  </si>
+  <si>
+    <t>人员档案文件上传，文件扩展名限定为doc,docx,pdf,rar,zip,图片</t>
+  </si>
+  <si>
+    <t>安全生产经费报表，没有记录的字段显示为0</t>
+  </si>
+  <si>
+    <t>安全台账添加上传图片功能</t>
+  </si>
+  <si>
+    <t>企业基础资料，企业名称修改，改为企业基本信息修改</t>
+  </si>
+  <si>
+    <t>安全会议台账、安全培训台账记录人，自动带当前登录用户名字</t>
+  </si>
+  <si>
+    <t>安全会议台账，签到表带管理层人员，是否为管理层在职务中设置</t>
+  </si>
+  <si>
+    <t>在职务中添加是否管理层字段，管理层可以参加安全会议</t>
+  </si>
+  <si>
+    <t>安全培训签到表，带过来所有员工</t>
+  </si>
+  <si>
+    <t>设备档案和人员档案合并到目录档案管理</t>
+  </si>
+  <si>
+    <t>设备档案类别初始化到类别管理中</t>
+  </si>
+  <si>
+    <t>人员档案统一添加有效期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +491,150 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,14 +654,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,7 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,8 +710,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -643,9 +982,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,6 +1258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,17 +1312,58 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1026,1262 +1654,1263 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="10" customWidth="1"/>
-    <col min="2" max="5" width="13" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
+    <col min="2" max="5" width="13" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>44013</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>44017</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>0.5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>44013</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>44013</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>0.5</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>44013</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>44013</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>44014</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>44014</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>44015</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>44015</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>0.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>44016</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>44016</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>0.5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>44016</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>44016</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>0.5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>44017</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <v>44017</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>0.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>44017</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <v>44017</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>44018</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>44020</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>0.5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>44018</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <v>44018</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>0.5</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>44018</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="18">
         <v>44018</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="18">
         <v>44019</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
         <v>44019</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="18">
         <v>44020</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="18">
         <v>44020</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="18">
         <v>44021</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <v>44022</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="18">
         <v>44021</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="18">
         <v>44021</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>0.5</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="18">
         <v>44022</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
         <v>44022</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="18">
         <v>44022</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
         <v>44022</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>2</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <v>44023</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>44024</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>0.5</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="19">
         <v>44023</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>44023</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="12">
         <v>0.5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="19">
         <v>44023</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="19">
         <v>44023</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="12">
         <v>0.5</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="19">
         <v>44024</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="19">
         <v>44024</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="12">
         <v>0.5</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="19">
         <v>44024</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="19">
         <v>44024</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="15">
         <v>44025</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>44026</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="12">
         <v>0.5</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="19">
         <v>44025</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="19">
         <v>44025</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="19">
         <v>44025</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="19">
         <v>44026</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="12">
         <v>0.5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="19">
         <v>44026</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="19">
         <v>44026</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="15">
         <v>44027</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="15">
         <v>44028</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <v>0.5</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="19">
         <v>44027</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="19">
         <v>44027</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="12">
         <v>0.5</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="19">
         <v>44027</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="19">
         <v>44027</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="12">
         <v>0.5</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="19">
         <v>44028</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="19">
         <v>44028</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="12">
         <v>0.3</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="19">
         <v>44028</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="19">
         <v>44028</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="12">
         <v>0.2</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="19">
         <v>44028</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="19">
         <v>44028</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <v>2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="15">
         <v>44029</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="15">
         <v>44030</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="18">
         <v>44029</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="18">
         <v>44029</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="19">
         <v>44030</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="19">
         <v>44030</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>3</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <v>44031</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="15">
         <v>44033</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="19">
         <v>44031</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="19">
         <v>44031</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="F39" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="19">
         <v>44032</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="19">
         <v>44032</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+      <c r="F40" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="19">
         <v>44033</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="19">
         <v>44033</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="F41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="15">
         <v>44034</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="15">
         <v>44035</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="19">
         <v>44034</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="19">
         <v>44034</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="F43" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="19">
         <v>44035</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="19">
         <v>44035</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="F44" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12">
-        <v>7</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B45" s="14">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15">
         <v>44036</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="15">
         <v>44042</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="19">
         <v>44036</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="19">
         <v>44036</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="12">
         <v>1</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="19">
         <v>44037</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="19">
         <v>44037</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="F47" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="12">
         <v>1</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="19">
         <v>44038</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="19">
         <v>44038</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="12">
         <v>1</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="19">
         <v>44039</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="19">
         <v>44039</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="19">
         <v>44040</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="19">
         <v>44040</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="12">
         <v>1</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="19">
         <v>44041</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="19">
         <v>44041</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="19">
         <v>44042</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="19">
         <v>44042</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
+      <c r="F52" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="14">
         <v>3</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="15">
         <v>44043</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="15">
         <v>44045</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="19">
         <v>44043</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="19">
         <v>44043</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="12">
         <v>1</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="19">
         <v>44044</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="19">
         <v>44044</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="12">
         <v>1</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="19">
         <v>44045</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="19">
         <v>44045</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="F56" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="14">
         <v>3</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="15">
         <v>44046</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="15">
         <v>44048</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="19">
         <v>44046</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="19">
         <v>44046</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
+      <c r="F58" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="18">
         <v>44047</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="18">
         <v>44047</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="19">
         <v>44048</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="19">
         <v>44048</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
+      <c r="F60" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="15">
         <v>44049</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="15">
         <v>44051</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="12">
         <v>1</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="19">
         <v>44049</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="19">
         <v>44049</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
+      <c r="F62" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="12">
         <v>1</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="19">
         <v>44050</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="19">
         <v>44050</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="F63" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="12">
         <v>1</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="19">
         <v>44051</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="19">
         <v>44051</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+      <c r="F64" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="12">
         <v>1</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="19">
         <v>44052</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="19">
         <v>44052</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
+      <c r="F65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="18" t="s">
+      <c r="F66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="18" t="s">
+      <c r="F67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
+      <c r="F68" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" ht="51.75" customHeight="1" spans="1:4">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:D71"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64 F65 F2:F63 F66:F71">
       <formula1>$M$1:$M$3</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
       <formula1>44013</formula1>
       <formula2>44195</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -2290,7 +2919,7 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2307,7 +2936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="148.5" spans="1:5">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2324,7 +2953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" ht="81" spans="1:4">
       <c r="A3" s="7">
         <v>44046</v>
       </c>
@@ -2336,7 +2965,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="4" ht="270" spans="1:3">
       <c r="A4" s="7">
         <v>44053</v>
       </c>
@@ -2347,41 +2976,41 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
+    <row r="5" ht="93.75" customHeight="1" spans="1:3">
+      <c r="A5" s="9">
         <v>44060</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="9">
         <v>44066</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" customHeight="1" spans="1:3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="1:3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" hidden="1" customHeight="1" spans="1:3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" hidden="1" customHeight="1" spans="1:3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" hidden="1" customHeight="1" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2389,21 +3018,22 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:C10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -2411,34 +3041,34 @@
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4">
         <v>44049</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5">
         <v>44049</v>
@@ -2447,9 +3077,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5">
         <v>44049</v>
@@ -2458,9 +3088,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5">
         <v>44049</v>
@@ -2469,9 +3099,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5">
         <v>44049</v>
@@ -2480,9 +3110,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5">
         <v>44049</v>
@@ -2491,9 +3121,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5">
         <v>44049</v>
@@ -2502,9 +3132,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5">
         <v>44049</v>
@@ -2513,9 +3143,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5">
         <v>44049</v>
@@ -2524,9 +3154,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="5">
         <v>44049</v>
@@ -2535,9 +3165,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="5">
         <v>44049</v>
@@ -2546,9 +3176,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5">
         <v>44049</v>
@@ -2557,9 +3187,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5">
         <v>44049</v>
@@ -2568,9 +3198,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="5">
         <v>44049</v>
@@ -2579,9 +3209,9 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5">
         <v>44049</v>
@@ -2591,7 +3221,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -269,13 +269,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1、模板管理：
    1.1、会议模板
    1.2、培训模板
@@ -473,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -495,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,31 +501,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,6 +535,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,16 +561,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,9 +594,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,24 +615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,187 +705,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +976,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1033,10 +1013,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1057,15 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1080,6 +1049,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1088,10 +1081,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,133 +1093,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2906,8 +2899,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>功能模块</t>
   </si>
@@ -269,6 +269,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1、模板管理：
    1.1、会议模板
    1.2、培训模板
@@ -404,6 +411,17 @@
 7、应急预案备案</t>
   </si>
   <si>
+    <t>系统测试及BUG修改</t>
+  </si>
+  <si>
+    <t>1、BUG修改
+2、添加作业管理台账功能
+3、数据长度限制
+4、添加缓存
+5、部署到NGINX
+6、购买服务器</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -467,8 +485,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -488,14 +506,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,14 +534,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +597,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -539,23 +605,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,52 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,73 +723,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,109 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,26 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1007,30 +1005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,8 +1027,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,6 +1047,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1081,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,137 +1111,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,1219 +1682,1219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="12" customWidth="1"/>
-    <col min="2" max="5" width="13" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
+    <col min="2" max="5" width="13" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="15">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>44013</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>44017</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>0.5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>44013</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>44013</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="12" customFormat="1" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>0.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>44013</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>44013</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="12" customFormat="1" spans="1:6">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>44014</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>44014</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="12" customFormat="1" spans="1:6">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>44015</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>44015</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:6">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="12" customFormat="1" spans="1:6">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>0.5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>44016</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>44016</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:6">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="12" customFormat="1" spans="1:6">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>0.5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>44016</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>44016</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="12" customFormat="1" spans="1:6">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>0.5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <v>44017</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>44017</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:6">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="12" customFormat="1" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>0.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>44017</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>44017</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <v>44018</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>44020</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>0.5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>44018</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>44018</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>0.5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>44018</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>44018</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>44019</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>44019</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>44020</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="19">
         <v>44020</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <v>2</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>44021</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>44022</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>44021</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>44021</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>0.5</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>44022</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>44022</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>0.5</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>44022</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>44022</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <v>44023</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <v>44024</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>0.5</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>44023</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>44023</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <v>0.5</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>44023</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <v>44023</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>0.5</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <v>44024</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <v>44024</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>0.5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="20">
         <v>44024</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="20">
         <v>44024</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>2</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="16">
         <v>44025</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="16">
         <v>44026</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>0.5</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="20">
         <v>44025</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>44025</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>1</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>44025</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <v>44026</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>0.5</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="20">
         <v>44026</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="20">
         <v>44026</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="15">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="16">
         <v>44027</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="16">
         <v>44028</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>0.5</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="20">
         <v>44027</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="20">
         <v>44027</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="13">
         <v>0.5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>44027</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="20">
         <v>44027</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>0.5</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="20">
         <v>44028</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="20">
         <v>44028</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="13">
         <v>0.3</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="20">
         <v>44028</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="20">
         <v>44028</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="13">
         <v>0.2</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="20">
         <v>44028</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="20">
         <v>44028</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="15">
         <v>2</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="16">
         <v>44029</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <v>44030</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="18">
         <v>1</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="19">
         <v>44029</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>44029</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>1</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="20">
         <v>44030</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="20">
         <v>44030</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="15">
         <v>3</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>44031</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <v>44033</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="13">
         <v>1</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="20">
         <v>44031</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="20">
         <v>44031</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="13">
         <v>1</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="20">
         <v>44032</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="20">
         <v>44032</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="13">
         <v>1</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="20">
         <v>44033</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="20">
         <v>44033</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="15">
         <v>2</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>44034</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <v>44035</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="13">
         <v>1</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="20">
         <v>44034</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="20">
         <v>44034</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="13">
         <v>1</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="20">
         <v>44035</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="20">
         <v>44035</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="14">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="B45" s="15">
+        <v>7</v>
+      </c>
+      <c r="C45" s="16">
         <v>44036</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="16">
         <v>44042</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="13">
         <v>1</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="20">
         <v>44036</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="20">
         <v>44036</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="13">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="20">
         <v>44037</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="20">
         <v>44037</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="13">
         <v>1</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="20">
         <v>44038</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="20">
         <v>44038</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="13">
         <v>1</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="20">
         <v>44039</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="20">
         <v>44039</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="13">
         <v>1</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="20">
         <v>44040</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="20">
         <v>44040</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="13">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="20">
         <v>44041</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="20">
         <v>44041</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="13">
         <v>1</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="20">
         <v>44042</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="20">
         <v>44042</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="15">
         <v>3</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="16">
         <v>44043</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="16">
         <v>44045</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="13">
         <v>1</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="20">
         <v>44043</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="20">
         <v>44043</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="13">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="20">
         <v>44044</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="20">
         <v>44044</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="13">
         <v>1</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="20">
         <v>44045</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="20">
         <v>44045</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="15">
         <v>3</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="16">
         <v>44046</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="16">
         <v>44048</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="13">
         <v>1</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="20">
         <v>44046</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="20">
         <v>44046</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="18">
         <v>1</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="19">
         <v>44047</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="19">
         <v>44047</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17" t="s">
+      <c r="E59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="13">
         <v>1</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="20">
         <v>44048</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="20">
         <v>44048</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>3</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="16">
         <v>44049</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="16">
         <v>44051</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="13">
         <v>1</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="20">
         <v>44049</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="20">
         <v>44049</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="13">
         <v>1</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="20">
         <v>44050</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="20">
         <v>44050</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="13">
         <v>1</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="20">
         <v>44051</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="20">
         <v>44051</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="13">
         <v>1</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="20">
         <v>44052</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="20">
         <v>44052</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2897,10 +2918,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3004,6 +3025,28 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>44067</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44073</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:3">
+      <c r="A12" s="7">
+        <v>44074</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44080</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3036,13 +3079,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -3050,18 +3093,18 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4">
         <v>44049</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5">
         <v>44049</v>
@@ -3072,7 +3115,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5">
         <v>44049</v>
@@ -3083,7 +3126,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5">
         <v>44049</v>
@@ -3094,7 +3137,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5">
         <v>44049</v>
@@ -3105,7 +3148,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5">
         <v>44049</v>
@@ -3116,7 +3159,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5">
         <v>44049</v>
@@ -3127,7 +3170,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5">
         <v>44049</v>
@@ -3138,7 +3181,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5">
         <v>44049</v>
@@ -3149,7 +3192,7 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5">
         <v>44049</v>
@@ -3160,7 +3203,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" s="5">
         <v>44049</v>
@@ -3171,7 +3214,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5">
         <v>44049</v>
@@ -3182,7 +3225,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5">
         <v>44049</v>
@@ -3193,7 +3236,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" s="5">
         <v>44049</v>
@@ -3204,7 +3247,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5">
         <v>44049</v>

--- a/文档/工作计划.xlsx
+++ b/文档/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>功能模块</t>
   </si>
@@ -311,14 +311,11 @@
     </r>
   </si>
   <si>
-    <t>2020-7-28：
+    <t xml:space="preserve">
 1、工作内容2修改为安全隐患排查
 原因：这部分涉及车辆档案信息，
 放在车辆档案信息后做
 2、工作内容1部分，风险模板和点检模板，唐工还没准备好，具体时间没定。</t>
-  </si>
-  <si>
-    <t>未完成</t>
   </si>
   <si>
     <t>1、台账页面调整
@@ -419,7 +416,30 @@
 3、数据长度限制
 4、添加缓存
 5、部署到NGINX
-6、购买服务器</t>
+6、购买阿里云服务器</t>
+  </si>
+  <si>
+    <r>
+      <t>1、添加安全文化建设、安全生产月、其他安全活动、事故处理记录、四不放过记录模板模块
+2、前台页面添加查找安全文化建设、安全生产月、其他安全活动、事故处理记录、四不放过记录模板功能
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加缓存、部署、购买服务器调整到下周</t>
+    </r>
+  </si>
+  <si>
+    <t>1、功能测试
+2、添加缓存功能
+3、部署到NGINX
+4、购买阿里云服务器</t>
   </si>
   <si>
     <t>描述</t>
@@ -484,12 +504,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +526,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,21 +585,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,7 +600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,46 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,6 +685,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -723,19 +750,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,49 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,90 +918,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -892,12 +925,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,21 +1021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1028,7 +1040,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1060,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1063,7 +1090,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,10 +1126,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,19 +1138,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,113 +1162,113 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1301,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1682,1219 +1715,1219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
-    <col min="2" max="5" width="13" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
+    <col min="2" max="5" width="13" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>44013</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>44017</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="M2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="14" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>0.5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="19">
         <v>44013</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="19">
         <v>44013</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="14" customFormat="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>0.5</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="19">
         <v>44013</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <v>44013</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="14" customFormat="1" spans="1:6">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="19">
         <v>44014</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>44014</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="14" customFormat="1" spans="1:6">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>44015</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>44015</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" spans="1:6">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="14" customFormat="1" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>0.5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="19">
         <v>44016</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <v>44016</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:6">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="14" customFormat="1" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>0.5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="19">
         <v>44016</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="19">
         <v>44016</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:6">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="14" customFormat="1" spans="1:6">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>0.5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="19">
         <v>44017</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="19">
         <v>44017</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="14" customFormat="1" spans="1:6">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>0.5</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <v>44017</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="19">
         <v>44017</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>44018</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>44020</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="20">
         <v>0.5</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="21">
         <v>44018</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="21">
         <v>44018</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="20">
         <v>0.5</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
         <v>44018</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="21">
         <v>44018</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="20">
         <v>1</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <v>44019</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="21">
         <v>44019</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <v>1</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="21">
         <v>44020</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <v>44020</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="20">
         <v>2</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="21">
         <v>44021</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="21">
         <v>44022</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="21">
         <v>44021</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="21">
         <v>44021</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="20">
         <v>0.5</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="21">
         <v>44022</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="21">
         <v>44022</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="20">
         <v>0.5</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="21">
         <v>44022</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="21">
         <v>44022</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="18">
         <v>44023</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="18">
         <v>44024</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="15">
         <v>0.5</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="22">
         <v>44023</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="22">
         <v>44023</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="15">
         <v>0.5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="22">
         <v>44023</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="22">
         <v>44023</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="15">
         <v>0.5</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="22">
         <v>44024</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="22">
         <v>44024</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="15">
         <v>0.5</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="22">
         <v>44024</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="22">
         <v>44024</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="17">
         <v>2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="18">
         <v>44025</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="18">
         <v>44026</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="15">
         <v>0.5</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="22">
         <v>44025</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <v>44025</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="15">
         <v>1</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="22">
         <v>44025</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="22">
         <v>44026</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="15">
         <v>0.5</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="22">
         <v>44026</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="22">
         <v>44026</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="17">
         <v>2</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="18">
         <v>44027</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="18">
         <v>44028</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="15">
         <v>0.5</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="22">
         <v>44027</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="22">
         <v>44027</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="15">
         <v>0.5</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="22">
         <v>44027</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="22">
         <v>44027</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="15">
         <v>0.5</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="22">
         <v>44028</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="22">
         <v>44028</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="15">
         <v>0.3</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="22">
         <v>44028</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="22">
         <v>44028</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="15">
         <v>0.2</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="22">
         <v>44028</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="22">
         <v>44028</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="17">
         <v>2</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="18">
         <v>44029</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="18">
         <v>44030</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="20">
         <v>1</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="21">
         <v>44029</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="21">
         <v>44029</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="18"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="15">
         <v>1</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="22">
         <v>44030</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="22">
         <v>44030</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="18">
         <v>44031</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="18">
         <v>44033</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="15"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="15">
         <v>1</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="22">
         <v>44031</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="22">
         <v>44031</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="15">
         <v>1</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="22">
         <v>44032</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="22">
         <v>44032</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="15">
         <v>1</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="22">
         <v>44033</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="22">
         <v>44033</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="17">
         <v>2</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="18">
         <v>44034</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="18">
         <v>44035</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="15">
         <v>1</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="22">
         <v>44034</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="22">
         <v>44034</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="15">
         <v>1</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="22">
         <v>44035</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="22">
         <v>44035</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="15">
-        <v>7</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45" s="17">
+        <v>7</v>
+      </c>
+      <c r="C45" s="18">
         <v>44036</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="18">
         <v>44042</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="15">
         <v>1</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="22">
         <v>44036</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="22">
         <v>44036</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="15">
         <v>1</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="22">
         <v>44037</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="22">
         <v>44037</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="15">
         <v>1</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="22">
         <v>44038</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="22">
         <v>44038</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="15">
         <v>1</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="22">
         <v>44039</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="22">
         <v>44039</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="15">
         <v>1</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="22">
         <v>44040</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="22">
         <v>44040</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="15">
         <v>1</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="22">
         <v>44041</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="22">
         <v>44041</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="15">
         <v>1</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="22">
         <v>44042</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="22">
         <v>44042</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="17">
         <v>3</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="18">
         <v>44043</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="18">
         <v>44045</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="15">
         <v>1</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="22">
         <v>44043</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="22">
         <v>44043</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="15">
         <v>1</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="22">
         <v>44044</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="22">
         <v>44044</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="15">
         <v>1</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="22">
         <v>44045</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="22">
         <v>44045</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="17">
         <v>3</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="18">
         <v>44046</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="18">
         <v>44048</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="15">
         <v>1</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="22">
         <v>44046</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="22">
         <v>44046</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="20">
         <v>1</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="21">
         <v>44047</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="21">
         <v>44047</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="s">
+      <c r="E59" s="20"/>
+      <c r="F59" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="15">
         <v>1</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="22">
         <v>44048</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="22">
         <v>44048</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="17">
         <v>3</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="18">
         <v>44049</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="18">
         <v>44051</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="15">
         <v>1</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="22">
         <v>44049</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="22">
         <v>44049</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="15">
         <v>1</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="22">
         <v>44050</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="22">
         <v>44050</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="22">
         <v>44051</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="22">
         <v>44051</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="15">
         <v>1</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="22">
         <v>44052</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="22">
         <v>44052</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" ht="51.75" customHeight="1" spans="1:4">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2918,10 +2951,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2950,7 +2983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:5">
+    <row r="2" ht="157" customHeight="1" spans="1:5">
       <c r="A2" s="7">
         <v>44039</v>
       </c>
@@ -2964,7 +2997,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:4">
@@ -2975,11 +3008,11 @@
         <v>44052</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="270" spans="1:3">
+    <row r="4" ht="247" customHeight="1" spans="1:3">
       <c r="A4" s="7">
         <v>44053</v>
       </c>
@@ -2987,7 +3020,7 @@
         <v>44059</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="93.75" customHeight="1" spans="1:3">
@@ -2998,7 +3031,7 @@
         <v>44066</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" hidden="1" customHeight="1" spans="1:3">
@@ -3026,7 +3059,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="35" customHeight="1" spans="1:3">
       <c r="A11" s="7">
         <v>44067</v>
       </c>
@@ -3034,10 +3067,10 @@
         <v>44073</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" ht="81" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" ht="79" customHeight="1" spans="1:5">
       <c r="A12" s="7">
         <v>44074</v>
       </c>
@@ -3045,7 +3078,24 @@
         <v>44080</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:3">
+      <c r="A13" s="7">
+        <v>44081</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44087</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3079,13 +3129,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -3093,18 +3143,18 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4">
         <v>44049</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5">
         <v>44049</v>
@@ -3115,7 +3165,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5">
         <v>44049</v>
@@ -3126,7 +3176,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5">
         <v>44049</v>
@@ -3137,7 +3187,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5">
         <v>44049</v>
@@ -3148,7 +3198,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="5">
         <v>44049</v>
@@ -3159,7 +3209,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5">
         <v>44049</v>
@@ -3170,7 +3220,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5">
         <v>44049</v>
@@ -3181,7 +3231,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5">
         <v>44049</v>
@@ -3192,7 +3242,7 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5">
         <v>44049</v>
@@ -3203,7 +3253,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5">
         <v>44049</v>
@@ -3214,7 +3264,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5">
         <v>44049</v>
@@ -3225,7 +3275,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5">
         <v>44049</v>
@@ -3236,7 +3286,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="5">
         <v>44049</v>
@@ -3247,7 +3297,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="5">
         <v>44049</v>
